--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>S.NO</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>REG NO</t>
   </si>
 </sst>
 </file>
@@ -407,384 +410,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:O12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>82</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>73</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>45</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>67</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>53</v>
       </c>
-      <c r="H2">
-        <f>(C2+D2+E2+F2+G2)</f>
+      <c r="I2">
+        <f>(D2+E2+F2+G2+H2)</f>
         <v>320</v>
       </c>
-      <c r="I2">
-        <f>(H2/5)</f>
+      <c r="J2">
+        <f>(I2/5)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>93</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>53</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>75</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>84</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>69</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H12" si="0">(C3+D3+E3+F3+G3)</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="0">(D3+E3+F3+G3+H3)</f>
         <v>374</v>
       </c>
-      <c r="I3">
-        <f>(H3/5)</f>
+      <c r="J3">
+        <f>(I3/5)</f>
         <v>74.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>74</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>82</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>83</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>45</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>36</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I3:I12" si="1">(H4/5)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="1">(I4/5)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>58</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>74</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>54</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>32</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>85</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>83</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>92</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>54</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>63</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>71</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>72</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>83</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>90</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>85</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>80.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>91</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>85</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>54</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>32</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>25</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>57.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>1107</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>85</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>76</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>74</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>54</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>52</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>85</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>75</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>56</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>45</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>82</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1109</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>92</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>75</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>45</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>43</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>82</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>1110</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>82</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>75</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>45</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>36</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>52</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
